--- a/TPOP-donnees/Hg_spectrum01_mod.xlsx
+++ b/TPOP-donnees/Hg_spectrum01_mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Clément MSI\UL\Session H2024_4\TPOP\Michelson\Données_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B985A9A-49EB-41DA-8457-52E90E7EBD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A12FA24-25FC-4A0A-8264-712B26627295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -3722,48 +3722,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3781,7 +3781,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7818,7 +7818,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1802219807"/>
@@ -7880,7 +7880,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1089523232"/>
@@ -7928,7 +7928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fr-FR"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -8535,9 +8535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8575,7 +8575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8681,7 +8681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8823,7 +8823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8837,9 +8837,9 @@
       <selection activeCell="B650" sqref="B650"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -8943,7 +8943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>124</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>126</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>128</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>130</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>136</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>138</v>
       </c>
@@ -9407,7 +9407,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
@@ -9415,7 +9415,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -9431,7 +9431,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>153</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>155</v>
       </c>
@@ -9479,7 +9479,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>157</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>159</v>
       </c>
@@ -9495,7 +9495,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>173</v>
       </c>
@@ -9551,7 +9551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>177</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
@@ -9591,7 +9591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>186</v>
       </c>
@@ -9607,7 +9607,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>188</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>190</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>196</v>
       </c>
@@ -9647,7 +9647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>197</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>201</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>203</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>205</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>207</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>209</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>211</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>212</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>213</v>
       </c>
@@ -9727,7 +9727,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>215</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>217</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>219</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>221</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>222</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>224</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>225</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>226</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>228</v>
       </c>
@@ -9799,7 +9799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>230</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>232</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>234</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>236</v>
       </c>
@@ -9831,7 +9831,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>238</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>239</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>241</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>243</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>244</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>245</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>247</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>249</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>251</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>253</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>255</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>257</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>259</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>261</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>263</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>265</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>266</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>267</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>269</v>
       </c>
@@ -9983,7 +9983,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>271</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>274</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>276</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>278</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>279</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>281</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>283</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>285</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>287</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>289</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>291</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>293</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>295</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>297</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>299</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>301</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>303</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>304</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>306</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>307</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>309</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>310</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>312</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>314</v>
       </c>
@@ -10183,7 +10183,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>316</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>318</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>319</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>321</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>322</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>323</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>325</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>327</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>329</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>331</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>333</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>335</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>336</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>337</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>339</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>341</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>343</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>344</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>345</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>347</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>349</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>351</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>353</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>355</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>357</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>358</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>359</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>361</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>363</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>365</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>367</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>369</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>371</v>
       </c>
@@ -10447,7 +10447,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>373</v>
       </c>
@@ -10455,7 +10455,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>375</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>377</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>379</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>381</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>383</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>385</v>
       </c>
@@ -10503,7 +10503,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>387</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>388</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>389</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>391</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>393</v>
       </c>
@@ -10543,7 +10543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>394</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>396</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>398</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>400</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>401</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>403</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>404</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>406</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>408</v>
       </c>
@@ -10615,7 +10615,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>410</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>412</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>413</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>414</v>
       </c>
@@ -10647,7 +10647,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>416</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>418</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>420</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>422</v>
       </c>
@@ -10679,7 +10679,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>424</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>426</v>
       </c>
@@ -10695,7 +10695,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>428</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>430</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>432</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>434</v>
       </c>
@@ -10727,7 +10727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>435</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>437</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>438</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>439</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>440</v>
       </c>
@@ -10767,7 +10767,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>442</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>443</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>445</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>446</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>447</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>449</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>451</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>453</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>455</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>457</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>459</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>461</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>463</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>464</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>466</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>468</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>470</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>471</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>472</v>
       </c>
@@ -10919,7 +10919,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>474</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>476</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>478</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>480</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>482</v>
       </c>
@@ -10959,7 +10959,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>484</v>
       </c>
@@ -10967,7 +10967,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>485</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>487</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>489</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>491</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>493</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>495</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>497</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>499</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>500</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>502</v>
       </c>
@@ -11047,7 +11047,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>504</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>505</v>
       </c>
@@ -11063,7 +11063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>506</v>
       </c>
@@ -11071,7 +11071,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>507</v>
       </c>
@@ -11079,7 +11079,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>508</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>510</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>512</v>
       </c>
@@ -11103,7 +11103,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>514</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>515</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>517</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>519</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>521</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>522</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>524</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>526</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>527</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>529</v>
       </c>
@@ -11183,7 +11183,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>531</v>
       </c>
@@ -11191,7 +11191,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>533</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>535</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>537</v>
       </c>
@@ -11215,7 +11215,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>538</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>540</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>542</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>544</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>546</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>547</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>549</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>551</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>553</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>555</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>556</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>558</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>560</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>561</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>562</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>564</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>565</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>567</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>569</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>570</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>572</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>573</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>574</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>575</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>577</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>578</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>580</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>582</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>583</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>585</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>587</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>588</v>
       </c>
@@ -11471,7 +11471,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>590</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>592</v>
       </c>
@@ -11487,7 +11487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>593</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>594</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>595</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>597</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>599</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>600</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>602</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>604</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>605</v>
       </c>
@@ -11559,7 +11559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>606</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>608</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>610</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>611</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>612</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>614</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>615</v>
       </c>
@@ -11615,7 +11615,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>617</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>618</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>619</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>621</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>622</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>624</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>626</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>628</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>630</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>632</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>633</v>
       </c>
@@ -11703,7 +11703,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>634</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>635</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>637</v>
       </c>
@@ -11727,7 +11727,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>639</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>641</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>643</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>645</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>646</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>647</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>648</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>650</v>
       </c>
@@ -11791,7 +11791,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>652</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>654</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>655</v>
       </c>
@@ -11815,7 +11815,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>657</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>659</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>661</v>
       </c>
@@ -11839,7 +11839,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>662</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>663</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>665</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>666</v>
       </c>
@@ -11871,7 +11871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>667</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>669</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>670</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>672</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>674</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>675</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>676</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>678</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>679</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>681</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>683</v>
       </c>
@@ -11959,7 +11959,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>685</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>687</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>689</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>691</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>693</v>
       </c>
@@ -11999,7 +11999,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>694</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>695</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>696</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>697</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>698</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>700</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>702</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>704</v>
       </c>
@@ -12063,7 +12063,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>705</v>
       </c>
@@ -12071,7 +12071,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>707</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>709</v>
       </c>
@@ -12087,7 +12087,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>711</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>713</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>715</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>716</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>717</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>719</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>721</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>723</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>725</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>727</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>728</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>729</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>731</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>732</v>
       </c>
@@ -12199,7 +12199,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>733</v>
       </c>
@@ -12207,7 +12207,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>734</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>736</v>
       </c>
@@ -12223,7 +12223,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>738</v>
       </c>
@@ -12231,7 +12231,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>739</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>740</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>742</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>744</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>746</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>747</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>749</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>751</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>753</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>755</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>757</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>758</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>759</v>
       </c>
@@ -12335,7 +12335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>760</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>761</v>
       </c>
@@ -12351,7 +12351,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>762</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>763</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>765</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>767</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>769</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>770</v>
       </c>
@@ -12399,7 +12399,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>771</v>
       </c>
@@ -12407,7 +12407,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>772</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>773</v>
       </c>
@@ -12423,7 +12423,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>775</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>777</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>778</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>780</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>781</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>783</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>784</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>785</v>
       </c>
@@ -12487,7 +12487,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>786</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>787</v>
       </c>
@@ -12503,7 +12503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>788</v>
       </c>
@@ -12511,7 +12511,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>789</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>791</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>793</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>795</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>797</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>798</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>799</v>
       </c>
@@ -12567,7 +12567,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>801</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>803</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>805</v>
       </c>
@@ -12591,7 +12591,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>807</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>808</v>
       </c>
@@ -12607,7 +12607,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>809</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>810</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>811</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>813</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>815</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>817</v>
       </c>
@@ -12655,7 +12655,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>819</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>820</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>821</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>823</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>825</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>827</v>
       </c>
@@ -12703,7 +12703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>828</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>830</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>831</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>832</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>833</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>834</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>836</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>837</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>838</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>839</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>841</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>843</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>845</v>
       </c>
@@ -12807,7 +12807,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>846</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>848</v>
       </c>
@@ -12823,7 +12823,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>849</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>851</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>853</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>855</v>
       </c>
@@ -12855,7 +12855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>856</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>857</v>
       </c>
@@ -12871,7 +12871,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>858</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>859</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>860</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>862</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>863</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>864</v>
       </c>
@@ -12919,7 +12919,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>866</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>868</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>870</v>
       </c>
@@ -12943,7 +12943,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>872</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>874</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>876</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>878</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>879</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>880</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>881</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>883</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>884</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>885</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>886</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>888</v>
       </c>
@@ -13039,7 +13039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>889</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>891</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>892</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>893</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>895</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>896</v>
       </c>
@@ -13087,7 +13087,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>898</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>900</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>902</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>904</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>905</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>907</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>908</v>
       </c>
@@ -13143,7 +13143,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>910</v>
       </c>
@@ -13151,7 +13151,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>912</v>
       </c>
@@ -13159,7 +13159,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>914</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>916</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>918</v>
       </c>
@@ -13183,7 +13183,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>919</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>920</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>921</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>922</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>924</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>925</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>927</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>929</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>930</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>931</v>
       </c>
@@ -13263,7 +13263,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>933</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>934</v>
       </c>
@@ -13279,7 +13279,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>936</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>938</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>940</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>941</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>943</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>944</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>945</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>947</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>949</v>
       </c>
@@ -13351,7 +13351,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>951</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>953</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>955</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>956</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>957</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>958</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>959</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>960</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>961</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>962</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>963</v>
       </c>
@@ -13439,7 +13439,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>965</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>967</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>969</v>
       </c>
@@ -13463,7 +13463,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>971</v>
       </c>
@@ -13471,7 +13471,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>972</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>973</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>974</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>976</v>
       </c>
@@ -13503,7 +13503,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>977</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>979</v>
       </c>
@@ -13519,7 +13519,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>980</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>981</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>983</v>
       </c>
@@ -13543,7 +13543,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>984</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>986</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>987</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>988</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>989</v>
       </c>
@@ -13583,7 +13583,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>990</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>991</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>992</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>993</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>994</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>995</v>
       </c>
@@ -13631,7 +13631,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>996</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>997</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>999</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>1000</v>
       </c>
@@ -13663,7 +13663,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>1001</v>
       </c>
@@ -13671,7 +13671,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>1003</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>1005</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>1006</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>1007</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>1008</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>1010</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>1011</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>1012</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1014</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1015</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>1017</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>1018</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>1020</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>1021</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>1022</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>1023</v>
       </c>
@@ -13799,7 +13799,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>1024</v>
       </c>
@@ -13807,7 +13807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>1025</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>1026</v>
       </c>
@@ -13823,7 +13823,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>1028</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>1029</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>1031</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>1033</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>1034</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>1036</v>
       </c>
@@ -13871,7 +13871,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>1037</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>1039</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>1041</v>
       </c>
@@ -13895,7 +13895,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>1042</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>1043</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>1046</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>1049</v>
       </c>
@@ -13943,7 +13943,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>1052</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>1054</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>1056</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>1057</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>1061</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>1062</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>1065</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>1067</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>1069</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1070</v>
       </c>
